--- a/v7-soc-8bit/fabrication/v7-soc-8bit-all-pos.xlsx
+++ b/v7-soc-8bit/fabrication/v7-soc-8bit-all-pos.xlsx
@@ -112,7 +112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="A1" sqref="A1:E1"/>
@@ -159,10 +159,10 @@
         </is>
       </c>
       <c r="B2" s="3">
-        <v>86.340000000000003</v>
+        <v>86.609999999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>-50.899999999999999</v>
+        <v>-50.18</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -497,17 +497,17 @@
     <row r="20" spans="1:5" ht="13.5">
       <c r="A20" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="B20" s="3">
-        <v>34.109999999999999</v>
+        <v>78.950000000000003</v>
       </c>
       <c r="C20" s="3">
-        <v>-41.840000000000003</v>
+        <v>-42.090000000000003</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
@@ -516,17 +516,17 @@
     <row r="21" spans="1:5" ht="13.5">
       <c r="A21" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="B21" s="3">
-        <v>39.93</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="C21" s="3">
-        <v>-34.549999999999997</v>
+        <v>-50.909999999999997</v>
       </c>
       <c r="D21" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
@@ -535,17 +535,17 @@
     <row r="22" spans="1:5" ht="13.5">
       <c r="A22" t="inlineStr">
         <is>
-          <t>J4</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B22" s="3">
-        <v>40</v>
+        <v>38.402500000000003</v>
       </c>
       <c r="C22" s="3">
-        <v>-51.93</v>
+        <v>-43.32</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -554,17 +554,17 @@
     <row r="23" spans="1:5" ht="13.5">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B23" s="3">
-        <v>78.950000000000003</v>
+        <v>45.920000000000002</v>
       </c>
       <c r="C23" s="3">
-        <v>-42.090000000000003</v>
+        <v>-43.32</v>
       </c>
       <c r="D23" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -573,17 +573,17 @@
     <row r="24" spans="1:5" ht="13.5">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="B24" s="3">
-        <v>77.650000000000006</v>
+        <v>47.079999999999998</v>
       </c>
       <c r="C24" s="3">
-        <v>-50.909999999999997</v>
+        <v>-46.600000000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -592,17 +592,17 @@
     <row r="25" spans="1:5" ht="13.5">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B25" s="3">
-        <v>38.402500000000003</v>
+        <v>51.149999999999999</v>
       </c>
       <c r="C25" s="3">
-        <v>-43.32</v>
+        <v>-46.600000000000001</v>
       </c>
       <c r="D25" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -611,17 +611,17 @@
     <row r="26" spans="1:5" ht="13.5">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="B26" s="3">
-        <v>45.920000000000002</v>
+        <v>76.019999999999996</v>
       </c>
       <c r="C26" s="3">
-        <v>-43.32</v>
+        <v>-45.390000000000001</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -630,17 +630,17 @@
     <row r="27" spans="1:5" ht="13.5">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="B27" s="3">
-        <v>47.079999999999998</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C27" s="3">
-        <v>-46.600000000000001</v>
+        <v>-55.689999999999998</v>
       </c>
       <c r="D27" s="3">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -649,17 +649,17 @@
     <row r="28" spans="1:5" ht="13.5">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="B28" s="3">
-        <v>51.149999999999999</v>
+        <v>42.159999999999997</v>
       </c>
       <c r="C28" s="3">
-        <v>-46.600000000000001</v>
+        <v>-44.280000000000001</v>
       </c>
       <c r="D28" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -668,17 +668,17 @@
     <row r="29" spans="1:5" ht="13.5">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="B29" s="3">
-        <v>76.019999999999996</v>
+        <v>42.159999999999997</v>
       </c>
       <c r="C29" s="3">
-        <v>-45.390000000000001</v>
+        <v>-42.350000000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -687,17 +687,17 @@
     <row r="30" spans="1:5" ht="13.5">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>U1</t>
         </is>
       </c>
       <c r="B30" s="3">
-        <v>73.599999999999994</v>
+        <v>52.109999999999999</v>
       </c>
       <c r="C30" s="3">
-        <v>-55.689999999999998</v>
+        <v>-42.259999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -706,17 +706,17 @@
     <row r="31" spans="1:5" ht="13.5">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>U2</t>
         </is>
       </c>
       <c r="B31" s="3">
-        <v>42.159999999999997</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3">
-        <v>-44.280000000000001</v>
+        <v>-45.909999999999997</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -725,17 +725,17 @@
     <row r="32" spans="1:5" ht="13.5">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>X1</t>
         </is>
       </c>
       <c r="B32" s="3">
-        <v>42.159999999999997</v>
+        <v>69.010000000000005</v>
       </c>
       <c r="C32" s="3">
-        <v>-42.350000000000001</v>
+        <v>-55.689999999999998</v>
       </c>
       <c r="D32" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -744,76 +744,19 @@
     <row r="33" spans="1:5" ht="13.5">
       <c r="A33" t="inlineStr">
         <is>
-          <t>U1</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="B33" s="3">
-        <v>52.109999999999999</v>
+        <v>73.375</v>
       </c>
       <c r="C33" s="3">
-        <v>-42.259999999999998</v>
+        <v>-40.399999999999999</v>
       </c>
       <c r="D33" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="13.5">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>U2</t>
-        </is>
-      </c>
-      <c r="B34" s="3">
-        <v>49</v>
-      </c>
-      <c r="C34" s="3">
-        <v>-45.909999999999997</v>
-      </c>
-      <c r="D34" s="3">
-        <v>90</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.5">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>X1</t>
-        </is>
-      </c>
-      <c r="B35" s="3">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="C35" s="3">
-        <v>-55.689999999999998</v>
-      </c>
-      <c r="D35" s="3">
-        <v>90</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="13.5">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Y1</t>
-        </is>
-      </c>
-      <c r="B36" s="3">
-        <v>73.375</v>
-      </c>
-      <c r="C36" s="3">
-        <v>-40.399999999999999</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
         <v>1</v>
       </c>
     </row>

--- a/v7-soc-8bit/fabrication/v7-soc-8bit-all-pos.xlsx
+++ b/v7-soc-8bit/fabrication/v7-soc-8bit-all-pos.xlsx
@@ -112,7 +112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="A1" sqref="A1:E1"/>
@@ -459,17 +459,17 @@
     <row r="18" spans="1:5" ht="13.5">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IC1</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="B18" s="3">
-        <v>69.349999999999994</v>
+        <v>59.840000000000003</v>
       </c>
       <c r="C18" s="3">
-        <v>-47.924999999999997</v>
+        <v>-50.609999999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
@@ -478,14 +478,14 @@
     <row r="19" spans="1:5" ht="13.5">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="B19" s="3">
-        <v>48.359999999999999</v>
+        <v>59.840000000000003</v>
       </c>
       <c r="C19" s="3">
-        <v>-54.100000000000001</v>
+        <v>-48.433332</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -497,17 +497,17 @@
     <row r="20" spans="1:5" ht="13.5">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B20" s="3">
-        <v>78.950000000000003</v>
+        <v>59.840000000000003</v>
       </c>
       <c r="C20" s="3">
-        <v>-42.090000000000003</v>
+        <v>-46.256666000000003</v>
       </c>
       <c r="D20" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
@@ -516,17 +516,17 @@
     <row r="21" spans="1:5" ht="13.5">
       <c r="A21" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="B21" s="3">
-        <v>77.650000000000006</v>
+        <v>59.840000000000003</v>
       </c>
       <c r="C21" s="3">
-        <v>-50.909999999999997</v>
+        <v>-44.079999999999998</v>
       </c>
       <c r="D21" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
@@ -535,14 +535,14 @@
     <row r="22" spans="1:5" ht="13.5">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>IC1</t>
         </is>
       </c>
       <c r="B22" s="3">
-        <v>38.402500000000003</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="C22" s="3">
-        <v>-43.32</v>
+        <v>-47.924999999999997</v>
       </c>
       <c r="D22" s="3">
         <v>180</v>
@@ -554,14 +554,14 @@
     <row r="23" spans="1:5" ht="13.5">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="B23" s="3">
-        <v>45.920000000000002</v>
+        <v>48.359999999999999</v>
       </c>
       <c r="C23" s="3">
-        <v>-43.32</v>
+        <v>-54.100000000000001</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -573,17 +573,17 @@
     <row r="24" spans="1:5" ht="13.5">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="B24" s="3">
-        <v>47.079999999999998</v>
+        <v>78.950000000000003</v>
       </c>
       <c r="C24" s="3">
-        <v>-46.600000000000001</v>
+        <v>-42.090000000000003</v>
       </c>
       <c r="D24" s="3">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -592,17 +592,17 @@
     <row r="25" spans="1:5" ht="13.5">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="B25" s="3">
-        <v>51.149999999999999</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="C25" s="3">
-        <v>-46.600000000000001</v>
+        <v>-50.909999999999997</v>
       </c>
       <c r="D25" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -611,17 +611,17 @@
     <row r="26" spans="1:5" ht="13.5">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B26" s="3">
-        <v>76.019999999999996</v>
+        <v>38.402500000000003</v>
       </c>
       <c r="C26" s="3">
-        <v>-45.390000000000001</v>
+        <v>-43.32</v>
       </c>
       <c r="D26" s="3">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -630,17 +630,17 @@
     <row r="27" spans="1:5" ht="13.5">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B27" s="3">
-        <v>73.599999999999994</v>
+        <v>45.920000000000002</v>
       </c>
       <c r="C27" s="3">
-        <v>-55.689999999999998</v>
+        <v>-43.32</v>
       </c>
       <c r="D27" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -649,17 +649,17 @@
     <row r="28" spans="1:5" ht="13.5">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="B28" s="3">
-        <v>42.159999999999997</v>
+        <v>47.079999999999998</v>
       </c>
       <c r="C28" s="3">
-        <v>-44.280000000000001</v>
+        <v>-46.600000000000001</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -668,17 +668,17 @@
     <row r="29" spans="1:5" ht="13.5">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B29" s="3">
-        <v>42.159999999999997</v>
+        <v>51.149999999999999</v>
       </c>
       <c r="C29" s="3">
-        <v>-42.350000000000001</v>
+        <v>-46.600000000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -687,17 +687,17 @@
     <row r="30" spans="1:5" ht="13.5">
       <c r="A30" t="inlineStr">
         <is>
-          <t>U1</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="B30" s="3">
-        <v>52.109999999999999</v>
+        <v>76.019999999999996</v>
       </c>
       <c r="C30" s="3">
-        <v>-42.259999999999998</v>
+        <v>-45.390000000000001</v>
       </c>
       <c r="D30" s="3">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -706,17 +706,17 @@
     <row r="31" spans="1:5" ht="13.5">
       <c r="A31" t="inlineStr">
         <is>
-          <t>U2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="B31" s="3">
-        <v>49</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C31" s="3">
-        <v>-45.909999999999997</v>
+        <v>-55.689999999999998</v>
       </c>
       <c r="D31" s="3">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -725,17 +725,17 @@
     <row r="32" spans="1:5" ht="13.5">
       <c r="A32" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="B32" s="3">
-        <v>69.010000000000005</v>
+        <v>42.159999999999997</v>
       </c>
       <c r="C32" s="3">
-        <v>-55.689999999999998</v>
+        <v>-44.280000000000001</v>
       </c>
       <c r="D32" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -744,19 +744,114 @@
     <row r="33" spans="1:5" ht="13.5">
       <c r="A33" t="inlineStr">
         <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="B33" s="3">
+        <v>42.159999999999997</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-42.350000000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>180</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.5">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RN1</t>
+        </is>
+      </c>
+      <c r="B34" s="3">
+        <v>63.575800000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-49.779998999999997</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B35" s="3">
+        <v>52.109999999999999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-42.259999999999998</v>
+      </c>
+      <c r="D35" s="3">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.5">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B36" s="3">
+        <v>49</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-45.909999999999997</v>
+      </c>
+      <c r="D36" s="3">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.5">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>X1</t>
+        </is>
+      </c>
+      <c r="B37" s="3">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-55.689999999999998</v>
+      </c>
+      <c r="D37" s="3">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.5">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Y1</t>
         </is>
       </c>
-      <c r="B33" s="3">
+      <c r="B38" s="3">
         <v>73.375</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C38" s="3">
         <v>-40.399999999999999</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>1</v>
       </c>
     </row>

--- a/v7-soc-8bit/fabrication/v7-soc-8bit-all-pos.xlsx
+++ b/v7-soc-8bit/fabrication/v7-soc-8bit-all-pos.xlsx
@@ -235,10 +235,10 @@
         </is>
       </c>
       <c r="B6" s="3">
-        <v>78.959999999999994</v>
+        <v>78.799999999999997</v>
       </c>
       <c r="C6" s="3">
-        <v>-38.960000000000001</v>
+        <v>-38.950000000000003</v>
       </c>
       <c r="D6" s="3">
         <v>-90</v>
@@ -254,10 +254,10 @@
         </is>
       </c>
       <c r="B7" s="3">
-        <v>77.200000000000003</v>
+        <v>77.290000000000006</v>
       </c>
       <c r="C7" s="3">
-        <v>-42.090000000000003</v>
+        <v>-42.280000000000001</v>
       </c>
       <c r="D7" s="3">
         <v>-90</v>
@@ -273,10 +273,10 @@
         </is>
       </c>
       <c r="B8" s="3">
-        <v>80.625</v>
+        <v>80.590000000000003</v>
       </c>
       <c r="C8" s="3">
-        <v>-42.090000000000003</v>
+        <v>-42.280000000000001</v>
       </c>
       <c r="D8" s="3">
         <v>90</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B24" s="3">
-        <v>78.950000000000003</v>
+        <v>78.939999999999998</v>
       </c>
       <c r="C24" s="3">
-        <v>-42.090000000000003</v>
+        <v>-42.280000000000001</v>
       </c>
       <c r="D24" s="3">
         <v>-90</v>
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="B34" s="3">
-        <v>63.575800000000001</v>
+        <v>63.68</v>
       </c>
       <c r="C34" s="3">
-        <v>-49.779998999999997</v>
+        <v>-49.770000000000003</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
